--- a/data/summary_22071412.xlsx
+++ b/data/summary_22071412.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,313 +406,349 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>33.1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>984.3287292817679</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.2497636363636364</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2371446280991736</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.596590773246317</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.0001341874550426262</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>31.32541436464089</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.903867403314917</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>33.06795580110497</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>984.3795580110497</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.264000826446281</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2651099173553719</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.596840383803258</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.000116272121195792</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>31.05580110497238</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.435911602209945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>33.32983425414365</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>984.3950276243094</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.3217123966942149</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.3229611570247934</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.942348231757691</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.0001344276154736349</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>31.0646408839779</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.63646408839779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>33.3828729281768</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>984.4088397790055</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.2785487603305785</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2651669421487604</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.733963603374721</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.79281356441901e-005</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30.93646408839779</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.848618784530387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>33.10055248618784</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>984.3232044198894</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.3017504132231405</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2104727272727273</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.151910731966173</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8.962941965029241e-005</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>30.7</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.674033149171271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>32.90441988950276</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>984.2121546961326</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.3363297520661157</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.288498347107438</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.291953803907838</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-2.859232372179107e-018</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>30.49116022099447</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.377900552486188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>32.5596685082873</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>984.1839779005526</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.2967049586776859</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2639768595041322</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.946826456952218</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0001357348618049335</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>30.4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.605524861878453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>32.28674033149171</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>984.1983425414366</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.3440785123966942</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3275363636363636</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.087780755453882</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.0001047940036717093</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30.4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.5215469613259669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>31.94419889502762</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>984.1392265193371</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.3378471074380166</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.3609322314049587</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.950667039567621</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-1.290609005763262e-017</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30.4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.9806629834254144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>31.55138121546962</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>984.1022099447514</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.04349586776859504</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.1484355371900827</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.8370469677257136</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-1.292224484043773e-017</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>30.21270718232044</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.503314917127072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>31.25966850828729</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>984.107182320442</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.4032264462809918</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3848851239669421</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.513561190680597</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-2.73065789301209e-017</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>30.1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.0281767955801105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>31.08011049723757</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>984.1</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.2924537190082645</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2582165289256199</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.95613217510782</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-2.732249837330868e-017</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>29.84475138121547</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.9</v>
       </c>
     </row>
